--- a/excel - długie zadanie.xlsx
+++ b/excel - długie zadanie.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\164434\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>liczby</t>
   </si>
@@ -37,12 +32,36 @@
   <si>
     <t>ni</t>
   </si>
+  <si>
+    <t>częstość</t>
+  </si>
+  <si>
+    <t>przedziały</t>
+  </si>
+  <si>
+    <t>12 do 15</t>
+  </si>
+  <si>
+    <t>3 do 6</t>
+  </si>
+  <si>
+    <t>6 do 9</t>
+  </si>
+  <si>
+    <t>9 do 12</t>
+  </si>
+  <si>
+    <t>15 do 18</t>
+  </si>
+  <si>
+    <t>18 do 21</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,12 +103,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -110,17 +130,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -152,14 +162,23 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -167,34 +186,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -207,7 +204,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Arkusz1!$D$2:$D$7</c:f>
@@ -236,28 +232,19 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="451049560"/>
-        <c:axId val="362317552"/>
+        <c:axId val="125293312"/>
+        <c:axId val="125294848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="451049560"/>
+        <c:axId val="125293312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -292,19 +279,17 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362317552"/>
+        <c:crossAx val="125294848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="362317552"/>
+        <c:axId val="125294848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -322,7 +307,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -351,7 +335,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451049560"/>
+        <c:crossAx val="125293312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -365,7 +349,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -394,569 +377,166 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>histogram</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>częstość</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$E$2:$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3 do 6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6 do 9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9 do 12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12 do 15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15 do 18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18 do 21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="90300416"/>
+        <c:axId val="90607616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="90300416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90607616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="90607616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90300416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -970,6 +550,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Wykres 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1021,7 +631,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1056,7 +666,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1233,27 +843,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1266,8 +877,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
         <v>14</v>
       </c>
@@ -1281,8 +898,14 @@
         <f t="array" ref="D2:D7">FREQUENCY(A2:A33,C2:C7)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>15</v>
       </c>
@@ -1295,8 +918,14 @@
       <c r="D3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>13</v>
       </c>
@@ -1309,8 +938,14 @@
       <c r="D4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>12</v>
       </c>
@@ -1323,8 +958,14 @@
       <c r="D5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="1">
         <v>21</v>
       </c>
@@ -1337,8 +978,14 @@
       <c r="D6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="1">
         <v>15</v>
       </c>
@@ -1351,8 +998,14 @@
       <c r="D7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="1">
         <v>17</v>
       </c>
@@ -1377,7 +1030,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -1402,7 +1055,7 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1427,7 +1080,7 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27">
       <c r="A11" s="1">
         <v>12</v>
       </c>
@@ -1452,7 +1105,7 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -1477,7 +1130,7 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1502,7 +1155,7 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1527,7 +1180,7 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1552,7 +1205,7 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27">
       <c r="A16" s="1">
         <v>19</v>
       </c>
@@ -1577,7 +1230,7 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -1602,7 +1255,7 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27">
       <c r="A18" s="1">
         <v>10</v>
       </c>
@@ -1627,7 +1280,7 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27">
       <c r="A19" s="1">
         <v>11</v>
       </c>
@@ -1652,7 +1305,7 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27">
       <c r="A20" s="1">
         <v>14</v>
       </c>
@@ -1677,7 +1330,7 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27">
       <c r="A21" s="1">
         <v>9</v>
       </c>
@@ -1702,7 +1355,7 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27">
       <c r="A22" s="1">
         <v>12</v>
       </c>
@@ -1727,7 +1380,7 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27">
       <c r="A23" s="1">
         <v>11</v>
       </c>
@@ -1752,7 +1405,7 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27">
       <c r="A24" s="1">
         <v>15</v>
       </c>
@@ -1777,53 +1430,54 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27">
       <c r="A25" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27">
       <c r="A26" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27">
       <c r="A27" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27">
       <c r="A28" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27">
       <c r="A29" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27">
       <c r="A30" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27">
       <c r="A31" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27">
       <c r="A32" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="1">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel - długie zadanie.xlsx
+++ b/excel - długie zadanie.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>liczby</t>
   </si>
@@ -55,6 +55,39 @@
   </si>
   <si>
     <t>18 do 21</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>średnia</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>Mediana</t>
+  </si>
+  <si>
+    <t>Kwartyl dolny</t>
+  </si>
+  <si>
+    <t>Kwartyl górny</t>
+  </si>
+  <si>
+    <t>Wariancja</t>
+  </si>
+  <si>
+    <t>Odchylenie standardowe</t>
+  </si>
+  <si>
+    <t>Współczynnik zmienności</t>
+  </si>
+  <si>
+    <t>Skośność</t>
   </si>
 </sst>
 </file>
@@ -129,261 +162,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pl-PL"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>fajny</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> wykres</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:val>
-            <c:numRef>
-              <c:f>Arkusz1!$D$2:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls/>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="125293312"/>
-        <c:axId val="125294848"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="125293312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="125294848"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="125294848"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="125293312"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="pl-PL"/>
   <c:chart>
@@ -479,24 +257,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="90300416"/>
-        <c:axId val="90607616"/>
+        <c:gapWidth val="0"/>
+        <c:axId val="39850368"/>
+        <c:axId val="39851904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90300416"/>
+        <c:axId val="39850368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90607616"/>
+        <c:crossAx val="39851904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90607616"/>
+        <c:axId val="39851904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -504,7 +283,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90300416"/>
+        <c:crossAx val="39850368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -517,7 +296,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -527,46 +306,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Wykres 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -579,7 +328,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -843,7 +592,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -854,7 +603,7 @@
   <dimension ref="A1:AA33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -862,6 +611,7 @@
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -904,6 +654,12 @@
       <c r="F2">
         <v>2</v>
       </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="1">
@@ -924,6 +680,13 @@
       <c r="F3">
         <v>3</v>
       </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <f>SUM(A2:A33)/I2</f>
+        <v>13.1875</v>
+      </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1">
@@ -944,6 +707,13 @@
       <c r="F4">
         <v>8</v>
       </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4">
+        <f>MIN(A2:A33)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="1">
@@ -964,6 +734,13 @@
       <c r="F5">
         <v>12</v>
       </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <f>MAX(A2:A33)</f>
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="1">
@@ -984,6 +761,13 @@
       <c r="F6">
         <v>4</v>
       </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <f>MEDIAN(A2:A33)</f>
+        <v>13.5</v>
+      </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="1">
@@ -1004,13 +788,25 @@
       <c r="F7">
         <v>3</v>
       </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <f>QUARTILE(A2:A33,1)</f>
+        <v>11.75</v>
+      </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="1">
         <v>17</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="2">
+        <f>QUARTILE(A2:A33,3)</f>
+        <v>15</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1034,8 +830,13 @@
       <c r="A9" s="1">
         <v>20</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="2">
+        <f>VAR(A2:A33)</f>
+        <v>14.866935483870968</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1059,8 +860,13 @@
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="2">
+        <f>STDEV(A2:A33)</f>
+        <v>3.8557665235165586</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1084,8 +890,13 @@
       <c r="A11" s="1">
         <v>12</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="2">
+        <f>I10/I3*100</f>
+        <v>29.238039988751158</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1109,8 +920,13 @@
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="2">
+        <f>SKEW(A2:A33)</f>
+        <v>-0.33941532955235348</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
